--- a/config/forms/app/case_exposure.xlsx
+++ b/config/forms/app/case_exposure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE20638-261C-469B-9140-68A384D38EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73BACF-6B7E-4F35-8690-848EC90A074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6805,18 +6805,6 @@
     <t>../../../inputs/contact/parent/parent/_id</t>
   </si>
   <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Created On</t>
-  </si>
-  <si>
     <t>today()</t>
   </si>
   <si>
@@ -6856,9 +6844,6 @@
     <t>When did the patient consume the food</t>
   </si>
   <si>
-    <t>ce_created</t>
-  </si>
-  <si>
     <t>cef_date</t>
   </si>
   <si>
@@ -7067,6 +7052,21 @@
   </si>
   <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document the exposure risk of the case e.g. travel history, food and water consumption, participation in events and gatherings, and contact with other people etc.&lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each exposure instance&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>ce_reported</t>
+  </si>
+  <si>
+    <t>reported_by</t>
+  </si>
+  <si>
+    <t>reported_on</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
   </si>
 </sst>
 </file>
@@ -7606,10 +7606,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8191,7 +8191,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>2336</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8443,7 +8443,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>2334</v>
+        <v>2329</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>30</v>
@@ -8452,7 +8452,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="21" t="s">
-        <v>2335</v>
+        <v>2330</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -8515,7 +8515,7 @@
         <v>2232</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>2329</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8526,7 +8526,7 @@
         <v>2233</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>2330</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8537,7 +8537,7 @@
         <v>2204</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>2331</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8545,10 +8545,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>2332</v>
+        <v>2327</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>2333</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8556,10 +8556,10 @@
         <v>74</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>2341</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8575,7 +8575,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>30</v>
@@ -8586,13 +8586,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="B71" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="C71" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -8603,7 +8603,7 @@
         <v>39</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8611,13 +8611,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>2314</v>
+        <v>2309</v>
       </c>
       <c r="H74" s="18" t="s">
         <v>48</v>
@@ -8628,10 +8628,10 @@
         <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="C75" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -8642,27 +8642,27 @@
         <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
       <c r="C76" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C77" t="s">
         <v>2268</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C77" t="s">
-        <v>2273</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -8673,10 +8673,10 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="C78" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -8684,13 +8684,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="B79" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="C79" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -8698,13 +8698,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="B80" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="C80" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -8715,21 +8715,21 @@
         <v>74</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>2315</v>
+        <v>2310</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>2316</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="B83" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="C83" t="s">
-        <v>2318</v>
+        <v>2313</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -8740,16 +8740,16 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>2309</v>
+        <v>2304</v>
       </c>
       <c r="C84" t="s">
-        <v>2310</v>
+        <v>2305</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>2311</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8757,21 +8757,21 @@
         <v>74</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>2312</v>
+        <v>2307</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>2313</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>2319</v>
+        <v>2314</v>
       </c>
       <c r="B87" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
       <c r="C87" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -8782,16 +8782,16 @@
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="C88" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8799,7 +8799,7 @@
         <v>39</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8807,13 +8807,13 @@
         <v>28</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>2328</v>
+        <v>2323</v>
       </c>
       <c r="H91" s="18" t="s">
         <v>48</v>
@@ -8821,19 +8821,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="B92" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="C92" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -8841,10 +8841,10 @@
         <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>2324</v>
+        <v>2319</v>
       </c>
       <c r="C93" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -8855,10 +8855,10 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>2326</v>
+        <v>2321</v>
       </c>
       <c r="C94" t="s">
-        <v>2327</v>
+        <v>2322</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -8869,7 +8869,7 @@
         <v>39</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>2323</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8877,7 +8877,7 @@
         <v>28</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>2271</v>
+        <v>2337</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>30</v>
@@ -8891,10 +8891,10 @@
         <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>2254</v>
+        <v>2338</v>
       </c>
       <c r="C98" t="s">
-        <v>2256</v>
+        <v>2340</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -8908,16 +8908,16 @@
         <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>2255</v>
+        <v>2339</v>
       </c>
       <c r="C99" t="s">
-        <v>2257</v>
+        <v>2341</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="100" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8925,7 +8925,7 @@
         <v>39</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>2271</v>
+        <v>2337</v>
       </c>
     </row>
   </sheetData>
@@ -9060,85 +9060,85 @@
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>2321</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>2282</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>150</v>
@@ -9150,62 +9150,62 @@
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>2300</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>2305</v>
-      </c>
       <c r="C25" s="20" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>150</v>
@@ -37694,10 +37694,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>

--- a/config/forms/app/case_exposure.xlsx
+++ b/config/forms/app/case_exposure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171397FF-5B2F-4EB4-A6F3-8E734ED27281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1B8BA-D1DE-40A5-B2F8-4A01108FEEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8610" uniqueCount="2416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="2427">
   <si>
     <t>form_title</t>
   </si>
@@ -6952,9 +6952,6 @@
     <t>cef_water_title</t>
   </si>
   <si>
-    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Water&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>select_multiple water_source</t>
   </si>
   <si>
@@ -7289,13 +7286,49 @@
   </si>
   <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document the exposure risk of the case e.g. travel history, food and water consumption, participation in events and gatherings, and contact with other people etc.&lt;/h4&gt;&lt;p&gt;This form can be filled multiple times for each exposure instance&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(150, 150, 150) dashed 1px; padding: 15px 0"&gt;Drinking / Cooking Water&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>case_disease_title</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Disease: ${disease_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>Outbreak syndrome disease</t>
+  </si>
+  <si>
+    <t>disease_name</t>
+  </si>
+  <si>
+    <t>Outbreak syndrome disease name</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/disease</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/disease_name</t>
+  </si>
+  <si>
+    <t>outbreak_disease</t>
+  </si>
+  <si>
+    <t>outbreak_disease_name</t>
+  </si>
+  <si>
+    <t>${disease_name} != ''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7364,11 +7397,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7474,7 +7502,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7491,11 +7519,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7817,12 +7843,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8446,7 +8472,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>30</v>
@@ -8460,16 +8486,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="E44" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8480,7 +8506,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8505,7 +8531,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>32</v>
       </c>
@@ -8513,10 +8539,10 @@
         <v>9</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>32</v>
       </c>
@@ -8527,7 +8553,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>32</v>
       </c>
@@ -8538,8 +8564,8 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>28</v>
       </c>
@@ -8550,7 +8576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>32</v>
       </c>
@@ -8561,7 +8587,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>32</v>
       </c>
@@ -8572,7 +8598,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>32</v>
       </c>
@@ -8583,486 +8609,416 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>47</v>
+        <v>2418</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B65" t="s">
         <v>2226</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C65" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="G65" t="s">
         <v>2227</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B66" t="s">
         <v>2228</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C66" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="G66" t="s">
         <v>2229</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B67" t="s">
         <v>2235</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C67" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="20" t="s">
+      <c r="G67" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
         <v>2345</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C66" s="16" t="s">
+      <c r="B69" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C69" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="20" t="s">
+      <c r="G69" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
         <v>2346</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>2230</v>
-      </c>
-      <c r="C67" s="16" t="s">
+      <c r="B72" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C72" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="20" t="s">
+      <c r="G72" t="s">
         <v>2347</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>2231</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B73" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C73" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="20" t="s">
+      <c r="G73" t="s">
         <v>2348</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>2318</v>
-      </c>
-      <c r="C69" s="16" t="s">
+      <c r="B74" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="20" t="s">
+      <c r="G74" t="s">
         <v>2349</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C70" s="16" t="s">
+      <c r="B75" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C75" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="20" t="s">
+      <c r="G75" t="s">
         <v>2350</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C71" s="16" t="s">
+    </row>
+    <row r="77" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="20" t="s">
-        <v>2351</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-    </row>
-    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>2316</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2250</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2251</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>2301</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C85" t="s">
-        <v>2262</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>2252</v>
       </c>
       <c r="B86" t="s">
-        <v>2259</v>
+        <v>2250</v>
       </c>
       <c r="C86" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="G86" t="s">
-        <v>2246</v>
-      </c>
-      <c r="J86" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>2256</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2260</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C88" t="s">
-        <v>2264</v>
-      </c>
-      <c r="D88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2285</v>
-      </c>
-      <c r="D89" t="s">
-        <v>13</v>
+    </row>
+    <row r="87" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>2301</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>2266</v>
+        <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="C90" t="s">
-        <v>2284</v>
+        <v>2262</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>2303</v>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2246</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>2304</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>2286</v>
+        <v>2263</v>
       </c>
       <c r="C93" t="s">
-        <v>2305</v>
+        <v>2264</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -9070,173 +9026,167 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>2266</v>
       </c>
       <c r="B94" t="s">
-        <v>2296</v>
+        <v>2265</v>
       </c>
       <c r="C94" t="s">
-        <v>2297</v>
+        <v>2285</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
-      <c r="F94" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>2306</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C97" t="s">
-        <v>2282</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
+      <c r="B97" s="17" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>2415</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>2303</v>
       </c>
       <c r="B98" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="C98" t="s">
-        <v>2281</v>
+        <v>2304</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
       </c>
-      <c r="F98" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>2255</v>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2298</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>2310</v>
+        <v>2299</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>2312</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>2332</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>2333</v>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>2321</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>2334</v>
+        <v>2280</v>
       </c>
       <c r="C103" t="s">
-        <v>2320</v>
+        <v>2281</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
       </c>
-      <c r="H103" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" t="s">
-        <v>2335</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="F103" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>2311</v>
       </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>47</v>
-      </c>
-      <c r="B105" t="s">
-        <v>2336</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2337</v>
-      </c>
-      <c r="D105" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="18" t="s">
+      <c r="H106" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>2329</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>2330</v>
+      <c r="B107" s="17" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>2332</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="B108" t="s">
-        <v>2338</v>
+        <v>2333</v>
       </c>
       <c r="C108" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
@@ -9244,10 +9194,10 @@
         <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>2339</v>
+        <v>2334</v>
       </c>
       <c r="C109" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -9258,52 +9208,55 @@
         <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>2340</v>
+        <v>2335</v>
       </c>
       <c r="C110" t="s">
-        <v>2331</v>
+        <v>2336</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
       </c>
       <c r="J110" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="17" t="s">
         <v>2328</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>2353</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>2354</v>
-      </c>
-      <c r="H113" s="17" t="s">
-        <v>48</v>
+      <c r="C112" s="17" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2321</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>2397</v>
+        <v>56</v>
       </c>
       <c r="B114" t="s">
-        <v>2387</v>
+        <v>2338</v>
       </c>
       <c r="C114" t="s">
-        <v>2399</v>
+        <v>2310</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -9311,259 +9264,315 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>2398</v>
+        <v>2339</v>
       </c>
       <c r="C115" t="s">
-        <v>2404</v>
+        <v>2330</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
-      <c r="F115" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>2407</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2406</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="J115" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>2353</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D119" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>2414</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2359</v>
-      </c>
-      <c r="C117" t="s">
-        <v>2358</v>
-      </c>
-      <c r="D117" t="s">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D120" t="s">
         <v>13</v>
       </c>
-      <c r="H117" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>56</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2371</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>2386</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>2385</v>
+      <c r="F120" t="s">
+        <v>2399</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>2321</v>
+        <v>2406</v>
       </c>
       <c r="B121" t="s">
-        <v>2374</v>
+        <v>2404</v>
       </c>
       <c r="C121" t="s">
-        <v>2320</v>
+        <v>2405</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
       </c>
-      <c r="H121" t="s">
-        <v>2322</v>
-      </c>
-      <c r="I121" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>2375</v>
+        <v>2413</v>
       </c>
       <c r="B122" t="s">
-        <v>2380</v>
+        <v>2358</v>
       </c>
       <c r="C122" t="s">
-        <v>2381</v>
+        <v>2357</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
-      <c r="F122" t="s">
-        <v>2384</v>
-      </c>
       <c r="H122" t="s">
-        <v>2322</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>2377</v>
+        <v>56</v>
       </c>
       <c r="B123" t="s">
-        <v>2378</v>
+        <v>2370</v>
       </c>
       <c r="C123" t="s">
-        <v>2382</v>
+        <v>2371</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
       </c>
       <c r="F123" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C125" s="17" t="s">
         <v>2384</v>
-      </c>
-      <c r="H123" t="s">
-        <v>2322</v>
-      </c>
-      <c r="L123" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2379</v>
-      </c>
-      <c r="C124" t="s">
-        <v>2383</v>
-      </c>
-      <c r="D124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>2384</v>
-      </c>
-      <c r="H124" t="s">
-        <v>2322</v>
-      </c>
-      <c r="L124" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>56</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2335</v>
-      </c>
-      <c r="C125" t="s">
-        <v>2311</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>2320</v>
       </c>
       <c r="B126" t="s">
-        <v>2357</v>
+        <v>2373</v>
       </c>
       <c r="C126" t="s">
-        <v>2356</v>
+        <v>2319</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
       </c>
-      <c r="J126" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>2323</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H126" t="s">
+        <v>2321</v>
+      </c>
+      <c r="I126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H127" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H128" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L128" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H129" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L129" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>56</v>
       </c>
       <c r="B130" t="s">
-        <v>2324</v>
+        <v>2334</v>
       </c>
       <c r="C130" t="s">
-        <v>2326</v>
-      </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-      <c r="G130" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2310</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>47</v>
       </c>
       <c r="B131" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C135" t="s">
         <v>2325</v>
       </c>
-      <c r="C131" t="s">
-        <v>2327</v>
-      </c>
-      <c r="E131" t="b">
+      <c r="E135" t="b">
         <v>1</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G135" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
         <v>2246</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="17" t="s">
+    <row r="137" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B132" s="17" t="s">
-        <v>2323</v>
+      <c r="B137" s="16" t="s">
+        <v>2322</v>
       </c>
     </row>
   </sheetData>
@@ -9712,10 +9721,10 @@
         <v>2247</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>2307</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
@@ -9723,10 +9732,10 @@
         <v>2247</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9804,7 +9813,7 @@
       <c r="B26" s="14" t="s">
         <v>2292</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>2288</v>
       </c>
     </row>
@@ -9815,7 +9824,7 @@
       <c r="B27" s="14" t="s">
         <v>2293</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>2289</v>
       </c>
     </row>
@@ -9826,7 +9835,7 @@
       <c r="B28" s="14" t="s">
         <v>2294</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>2290</v>
       </c>
     </row>
@@ -9837,7 +9846,7 @@
       <c r="B29" s="14" t="s">
         <v>2295</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>2291</v>
       </c>
     </row>
@@ -9848,7 +9857,7 @@
       <c r="B30" s="14" t="s">
         <v>2276</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>2271</v>
       </c>
     </row>
@@ -9859,157 +9868,157 @@
       <c r="B31" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="19"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>2408</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>2409</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>2412</v>
+      <c r="C33" s="18" t="s">
+        <v>2411</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>2410</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>2411</v>
-      </c>
     </row>
     <row r="35" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="19"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>2394</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>2395</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>2388</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>2393</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>2392</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>2390</v>
+        <v>2391</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>2389</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>2396</v>
+        <v>2390</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>2395</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="19"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>2370</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>2363</v>
+        <v>2369</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>2362</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>2360</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>2369</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="D45"/>
     </row>
     <row r="46" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D46"/>
     </row>
     <row r="47" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B47" t="s">
         <v>135</v>
@@ -10021,7 +10030,7 @@
     </row>
     <row r="48" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B48" t="s">
         <v>136</v>
@@ -10033,7 +10042,7 @@
     </row>
     <row r="49" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B49" t="s">
         <v>137</v>
@@ -10045,7 +10054,7 @@
     </row>
     <row r="50" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
@@ -10057,7 +10066,7 @@
     </row>
     <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B51" t="s">
         <v>139</v>
@@ -10069,7 +10078,7 @@
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B52" t="s">
         <v>140</v>
@@ -10081,7 +10090,7 @@
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B53" t="s">
         <v>141</v>
@@ -10093,7 +10102,7 @@
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>150</v>
@@ -10124,7 +10133,7 @@
       <c r="C57" s="14" t="s">
         <v>2206</v>
       </c>
-      <c r="F57" s="19"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
@@ -10136,8 +10145,8 @@
       <c r="C58" s="14" t="s">
         <v>2210</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="D58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
@@ -10149,8 +10158,8 @@
       <c r="C59" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="D59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="D59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
@@ -10162,8 +10171,8 @@
       <c r="C60" s="14" t="s">
         <v>2211</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
@@ -10175,11 +10184,11 @@
       <c r="C61" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="D61" s="18"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D62" s="19"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
@@ -10191,7 +10200,7 @@
       <c r="C63" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="14" t="s">

--- a/config/forms/app/case_exposure.xlsx
+++ b/config/forms/app/case_exposure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B1B8BA-D1DE-40A5-B2F8-4A01108FEEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE626B31-C962-4D7E-8EED-C7ABF44891D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -7282,9 +7282,6 @@
     <t>Animal (wild, sick, alive or dead)</t>
   </si>
   <si>
-    <t>select_one animal_species</t>
-  </si>
-  <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document the exposure risk of the case e.g. travel history, food and water consumption, participation in events and gatherings, and contact with other people etc.&lt;/h4&gt;&lt;p&gt;This form can be filled multiple times for each exposure instance&lt;/p&gt;</t>
   </si>
   <si>
@@ -7322,6 +7319,9 @@
   </si>
   <si>
     <t>${disease_name} != ''</t>
+  </si>
+  <si>
+    <t>select_multiple animal_species</t>
   </si>
 </sst>
 </file>
@@ -7845,10 +7845,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78:XFD78"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8614,10 +8614,10 @@
         <v>32</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>2418</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8625,10 +8625,10 @@
         <v>32</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>2420</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8739,13 +8739,13 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -8753,13 +8753,13 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -8848,13 +8848,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>2416</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>2417</v>
-      </c>
       <c r="F78" s="17" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8898,7 +8898,7 @@
         <v>2249</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -9060,7 +9060,7 @@
         <v>2302</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
@@ -9351,7 +9351,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>2413</v>
+        <v>2426</v>
       </c>
       <c r="B122" t="s">
         <v>2358</v>
@@ -9585,8 +9585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:F2197"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A1506" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1518" sqref="C1518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/config/forms/app/case_exposure.xlsx
+++ b/config/forms/app/case_exposure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE626B31-C962-4D7E-8EED-C7ABF44891D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1064F18-522D-4893-85B7-9042C8CDBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -7845,10 +7845,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9585,7 +9585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:F2197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1506" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1518" sqref="C1518"/>
     </sheetView>
   </sheetViews>
